--- a/Pipeline_2-Vulnerability/Labor/Outputs/Data/Eurostat_thw.xlsx
+++ b/Pipeline_2-Vulnerability/Labor/Outputs/Data/Eurostat_thw.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>7026440</v>
+        <v>7028700</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>196880</v>
+        <v>198700</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1158510</v>
+        <v>1175400</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1622170</v>
+        <v>1613600</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>424340</v>
+        <v>422500</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1012740</v>
+        <v>1012900</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1213190</v>
+        <v>1203000</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>486010</v>
+        <v>484900</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>613890</v>
+        <v>614800</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>297680</v>
+        <v>300600</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>7639848.3</v>
+        <v>7688716.4</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>1071233.9</v>
+        <v>1064145.3</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>1335923.5</v>
+        <v>1346904.8</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>554509.4</v>
+        <v>561642.3</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>1025329.2</v>
+        <v>1039087.7</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>764578.5</v>
+        <v>771214.5</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>895653.3</v>
+        <v>907065.2</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>268643.8</v>
+        <v>273835.1</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>672977.6</v>
+        <v>674273.1</v>
       </c>
     </row>
     <row r="21">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>608004</v>
+        <v>611341.4</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>155105</v>
+        <v>153532.1</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>282790.2</v>
+        <v>282656.4</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>5600623.84</v>
+        <v>5523904.28</v>
       </c>
     </row>
     <row r="25">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>508053.28</v>
+        <v>487676.27</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>550337.61</v>
+        <v>636021.3199999999</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>644293.35</v>
+        <v>605978.55</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>721471.29</v>
+        <v>705770.89</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>2102737.98</v>
+        <v>2068133.1</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>1073730.33</v>
+        <v>1020324.15</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>819364.01</v>
+        <v>842875</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>819364.01</v>
+        <v>842875</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>9226608</v>
+        <v>9088648</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>1687218</v>
+        <v>1635758</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>1055576</v>
+        <v>1046989</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>1036862</v>
+        <v>1019393</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>851209</v>
+        <v>834749</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>1221131</v>
+        <v>1207041</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>1465779</v>
+        <v>1451354</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>993747</v>
+        <v>984323</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>915086</v>
+        <v>909041</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>60622691</v>
+        <v>60455663</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>3263580</v>
+        <v>3224110.22</v>
       </c>
     </row>
     <row r="44">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>2116310</v>
+        <v>2092291.61</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>1643254</v>
+        <v>1624188.91</v>
       </c>
     </row>
     <row r="46">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>1418705</v>
+        <v>1401531.22</v>
       </c>
     </row>
     <row r="47">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>4018270</v>
+        <v>3988986.51</v>
       </c>
     </row>
     <row r="48">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>920824</v>
+        <v>914075.22</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>882684</v>
+        <v>876076.4399999999</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>789280</v>
+        <v>783220.5600000001</v>
       </c>
     </row>
     <row r="51">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>1416134</v>
+        <v>1405307.83</v>
       </c>
     </row>
     <row r="52">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>979536</v>
+        <v>971811.59</v>
       </c>
     </row>
     <row r="53">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>1400568</v>
+        <v>1390205.76</v>
       </c>
     </row>
     <row r="54">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>2837956</v>
+        <v>2837890</v>
       </c>
     </row>
     <row r="55">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>1587092</v>
+        <v>1580668</v>
       </c>
     </row>
     <row r="56">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>574395</v>
+        <v>574385</v>
       </c>
     </row>
     <row r="57">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>1790653</v>
+        <v>1805839</v>
       </c>
     </row>
     <row r="58">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>3172696</v>
+        <v>3169760.56</v>
       </c>
     </row>
     <row r="59">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>689575</v>
+        <v>688422.8</v>
       </c>
     </row>
     <row r="60">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>864469</v>
+        <v>865152.65</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>1055356</v>
+        <v>1056251</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>1101421</v>
+        <v>1110904.39</v>
       </c>
     </row>
     <row r="63">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>1530234</v>
+        <v>1537687.84</v>
       </c>
     </row>
     <row r="64">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>1010569</v>
+        <v>1018623.34</v>
       </c>
     </row>
     <row r="65">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>1853518</v>
+        <v>1872611.64</v>
       </c>
     </row>
     <row r="66">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>3764101</v>
+        <v>3756409.36</v>
       </c>
     </row>
     <row r="67">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>3241427</v>
+        <v>3236048.43</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>1754340</v>
+        <v>1752993.2</v>
       </c>
     </row>
     <row r="69">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>1519469</v>
+        <v>1517784.81</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>2462137</v>
+        <v>2458103.97</v>
       </c>
     </row>
     <row r="71">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>996685</v>
+        <v>994601.17</v>
       </c>
     </row>
     <row r="72">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>336001</v>
+        <v>335102.09</v>
       </c>
     </row>
     <row r="73">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>1337883</v>
+        <v>1333773.53</v>
       </c>
     </row>
     <row r="74">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>685463</v>
+        <v>685811</v>
       </c>
     </row>
     <row r="75">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>1123479</v>
+        <v>1118995.63</v>
       </c>
     </row>
     <row r="76">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>960181</v>
+        <v>955699.59</v>
       </c>
     </row>
     <row r="77">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>755697</v>
+        <v>751613.74</v>
       </c>
     </row>
     <row r="78">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>1394968</v>
+        <v>1398579</v>
       </c>
     </row>
     <row r="79">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>1951021</v>
+        <v>1947927</v>
       </c>
     </row>
     <row r="80">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>1422761</v>
+        <v>1422233</v>
       </c>
     </row>
     <row r="81">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>4241836</v>
+        <v>4221210</v>
       </c>
     </row>
     <row r="82">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>1557051</v>
+        <v>1541105</v>
       </c>
     </row>
     <row r="83">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>471478</v>
+        <v>473642</v>
       </c>
     </row>
     <row r="84">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>848172</v>
+        <v>848758</v>
       </c>
     </row>
     <row r="85">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>953573</v>
+        <v>948840</v>
       </c>
     </row>
     <row r="86">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>402737</v>
+        <v>400092</v>
       </c>
     </row>
     <row r="87">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>1185328</v>
+        <v>1090254.84</v>
       </c>
     </row>
     <row r="88">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>1185328</v>
+        <v>1090254.84</v>
       </c>
     </row>
     <row r="89">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>9185718.130000001</v>
+        <v>9515148.18</v>
       </c>
     </row>
     <row r="90">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>3471254.53</v>
+        <v>3607996.33</v>
       </c>
     </row>
     <row r="91">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>171280.75</v>
+        <v>177219.1</v>
       </c>
     </row>
     <row r="92">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>335403.67</v>
+        <v>348360.44</v>
       </c>
     </row>
     <row r="93">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>602422.05</v>
+        <v>622841.24</v>
       </c>
     </row>
     <row r="94">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>449203.41</v>
+        <v>462937.57</v>
       </c>
     </row>
     <row r="95">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>1446017.25</v>
+        <v>1499332.59</v>
       </c>
     </row>
     <row r="96">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>188987.3</v>
+        <v>194806.85</v>
       </c>
     </row>
     <row r="97">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>261006.19</v>
+        <v>268991.61</v>
       </c>
     </row>
     <row r="98">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>566216.9300000001</v>
+        <v>584072.9300000001</v>
       </c>
     </row>
     <row r="99">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>187203.69</v>
+        <v>194026.5</v>
       </c>
     </row>
     <row r="100">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>550474.24</v>
+        <v>567632</v>
       </c>
     </row>
     <row r="101">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>451627.55</v>
+        <v>467089.94</v>
       </c>
     </row>
     <row r="102">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>504620.58</v>
+        <v>519841.08</v>
       </c>
     </row>
     <row r="103">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>32541006.2</v>
+        <v>32787923.3</v>
       </c>
     </row>
     <row r="104">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>1767888.5</v>
+        <v>1791511.2</v>
       </c>
     </row>
     <row r="105">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>634432.5</v>
+        <v>636078.7</v>
       </c>
     </row>
     <row r="106">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>373223.9</v>
+        <v>374578.8</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>1613693.8</v>
+        <v>1609254.6</v>
       </c>
     </row>
     <row r="108">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>485757.4</v>
+        <v>487897.2</v>
       </c>
     </row>
     <row r="109">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>227291</v>
+        <v>223773.9</v>
       </c>
     </row>
     <row r="110">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>988506.5</v>
+        <v>990661.2</v>
       </c>
     </row>
     <row r="111">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>5655466.2</v>
+        <v>5719816.1</v>
       </c>
     </row>
     <row r="112">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>1615061.8</v>
+        <v>1617509.8</v>
       </c>
     </row>
     <row r="113">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>1233794</v>
+        <v>1239727.3</v>
       </c>
     </row>
     <row r="114">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>631529.9</v>
+        <v>646382.8</v>
       </c>
     </row>
     <row r="115">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>5841826.2</v>
+        <v>5844165.7</v>
       </c>
     </row>
     <row r="116">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>3277679.8</v>
+        <v>3306937.7</v>
       </c>
     </row>
     <row r="117">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>793155.6</v>
+        <v>784735.2</v>
       </c>
     </row>
     <row r="118">
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>4947387.6</v>
+        <v>5023213.8</v>
       </c>
     </row>
     <row r="119">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>1035865.9</v>
+        <v>1045463.8</v>
       </c>
     </row>
     <row r="120">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>51522.7</v>
+        <v>50974.4</v>
       </c>
     </row>
     <row r="121">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>49370.7</v>
+        <v>51373.9</v>
       </c>
     </row>
     <row r="122">
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>1300272.6</v>
+        <v>1328259.8</v>
       </c>
     </row>
     <row r="123">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>4211300</v>
+        <v>4174900</v>
       </c>
     </row>
     <row r="124">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>1003510.55</v>
+        <v>994840.8199999999</v>
       </c>
     </row>
     <row r="125">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>1461916.66</v>
+        <v>1450838.49</v>
       </c>
     </row>
     <row r="126">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>813079.08</v>
+        <v>805671.0699999999</v>
       </c>
     </row>
     <row r="127">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>899925.95</v>
+        <v>891304.64</v>
       </c>
     </row>
     <row r="128">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>27246.62</v>
+        <v>26623.84</v>
       </c>
     </row>
     <row r="129">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>43201636.02</v>
+        <v>43169828.4</v>
       </c>
     </row>
     <row r="130">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>9811662.66</v>
+        <v>9665626.699999999</v>
       </c>
     </row>
     <row r="131">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>1503448.51</v>
+        <v>1492539.6</v>
       </c>
     </row>
     <row r="132">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>961526.6899999999</v>
+        <v>957682.9</v>
       </c>
     </row>
     <row r="133">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>653072.96</v>
+        <v>653484.2</v>
       </c>
     </row>
     <row r="134">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>904217.36</v>
+        <v>902857.4</v>
       </c>
     </row>
     <row r="135">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>1064722.14</v>
+        <v>1052291.6</v>
       </c>
     </row>
     <row r="136">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>2362478.29</v>
+        <v>2320111.4</v>
       </c>
     </row>
     <row r="137">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>996026.89</v>
+        <v>983216.6</v>
       </c>
     </row>
     <row r="138">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>1187073.89</v>
+        <v>1171405.9</v>
       </c>
     </row>
     <row r="139">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>777080.03</v>
+        <v>767005.1</v>
       </c>
     </row>
     <row r="140">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>1217266.69</v>
+        <v>1206209.9</v>
       </c>
     </row>
     <row r="141">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>2515417.35</v>
+        <v>2502042.6</v>
       </c>
     </row>
     <row r="142">
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>2119513.18</v>
+        <v>2117997.4</v>
       </c>
     </row>
     <row r="143">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>2266986.73</v>
+        <v>2284709.9</v>
       </c>
     </row>
     <row r="144">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>420142.91</v>
+        <v>425777.5</v>
       </c>
     </row>
     <row r="145">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>1096674.54</v>
+        <v>1097800</v>
       </c>
     </row>
     <row r="146">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>1624737.78</v>
+        <v>1655005.6</v>
       </c>
     </row>
     <row r="147">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>1988222.01</v>
+        <v>2015604.1</v>
       </c>
     </row>
     <row r="148">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>811458.53</v>
+        <v>820077.8</v>
       </c>
     </row>
     <row r="149">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>4462258.66</v>
+        <v>4477758.7</v>
       </c>
     </row>
     <row r="150">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>3273302.97</v>
+        <v>3317224.3</v>
       </c>
     </row>
     <row r="151">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>207640.83</v>
+        <v>210564.9</v>
       </c>
     </row>
     <row r="152">
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>3111254.48</v>
+        <v>3212856.25</v>
       </c>
     </row>
     <row r="153">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>730438.83</v>
+        <v>734098.1899999999</v>
       </c>
     </row>
     <row r="154">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>974095.13</v>
+        <v>1022188.51</v>
       </c>
     </row>
     <row r="155">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>861695.38</v>
+        <v>908222.98</v>
       </c>
     </row>
     <row r="156">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>545025.14</v>
+        <v>548346.5600000001</v>
       </c>
     </row>
     <row r="157">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>7960292</v>
+        <v>7908517</v>
       </c>
     </row>
     <row r="158">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>2695430.59</v>
+        <v>2668643.13</v>
       </c>
     </row>
     <row r="159">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>814631.29</v>
+        <v>824866.36</v>
       </c>
     </row>
     <row r="160">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>867254.08</v>
+        <v>860985.75</v>
       </c>
     </row>
     <row r="161">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>748232.38</v>
+        <v>744147.4</v>
       </c>
     </row>
     <row r="162">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>529119.39</v>
+        <v>525128.78</v>
       </c>
     </row>
     <row r="163">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>645998.85</v>
+        <v>641776.8199999999</v>
       </c>
     </row>
     <row r="164">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>864467.59</v>
+        <v>854100.51</v>
       </c>
     </row>
     <row r="165">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>795157.83</v>
+        <v>788868.25</v>
       </c>
     </row>
     <row r="166">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>3887615.78</v>
+        <v>3960294.36</v>
       </c>
     </row>
     <row r="167">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>679563.24</v>
+        <v>652466.48</v>
       </c>
     </row>
     <row r="168">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>1226237.68</v>
+        <v>1228016.48</v>
       </c>
     </row>
     <row r="169">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>1981814.86</v>
+        <v>2079811.39</v>
       </c>
     </row>
     <row r="170">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>42445288</v>
+        <v>41440389.4</v>
       </c>
     </row>
     <row r="171">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>3217757</v>
+        <v>3091166.7</v>
       </c>
     </row>
     <row r="172">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>102882.1</v>
+        <v>98860.7</v>
       </c>
     </row>
     <row r="173">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B173">
-        <v>1094961.6</v>
+        <v>1073459.1</v>
       </c>
     </row>
     <row r="174">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>8151322.7</v>
+        <v>8010281.7</v>
       </c>
     </row>
     <row r="175">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B175">
-        <v>863267.3</v>
+        <v>859557.5</v>
       </c>
     </row>
     <row r="176">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="B176">
-        <v>187970.6</v>
+        <v>182702</v>
       </c>
     </row>
     <row r="177">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>3116063.9</v>
+        <v>3036458.6</v>
       </c>
     </row>
     <row r="178">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>2408283.6</v>
+        <v>2324706</v>
       </c>
     </row>
     <row r="179">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>351088.9</v>
+        <v>343258.2</v>
       </c>
     </row>
     <row r="180">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>1019690.5</v>
+        <v>996672.6</v>
       </c>
     </row>
     <row r="181">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>2555738.9</v>
+        <v>2467119</v>
       </c>
     </row>
     <row r="182">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>1025602.2</v>
+        <v>989856.5</v>
       </c>
     </row>
     <row r="183">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>522201</v>
+        <v>496423.8</v>
       </c>
     </row>
     <row r="184">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>445907.4</v>
+        <v>429642.2</v>
       </c>
     </row>
     <row r="185">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>3900790.6</v>
+        <v>3840948.8</v>
       </c>
     </row>
     <row r="186">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>901852</v>
+        <v>883335.2</v>
       </c>
     </row>
     <row r="187">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>3632693.9</v>
+        <v>3559680.1</v>
       </c>
     </row>
     <row r="188">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>2793481.2</v>
+        <v>2742988.6</v>
       </c>
     </row>
     <row r="189">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>620067</v>
+        <v>604747.9</v>
       </c>
     </row>
     <row r="190">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>1113435.6</v>
+        <v>1095912.5</v>
       </c>
     </row>
     <row r="191">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>4408657</v>
+        <v>4300965.5</v>
       </c>
     </row>
     <row r="192">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>2537022.4</v>
+        <v>2541613.35</v>
       </c>
     </row>
     <row r="193">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>879549.5</v>
+        <v>879595.23</v>
       </c>
     </row>
     <row r="194">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>1657472.9</v>
+        <v>1662018.12</v>
       </c>
     </row>
     <row r="195">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>711892.98</v>
+        <v>711893</v>
       </c>
     </row>
     <row r="196">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>711892.98</v>
+        <v>711893</v>
       </c>
     </row>
     <row r="197">
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>1564548.66</v>
+        <v>1651803</v>
       </c>
     </row>
     <row r="198">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>1564548.66</v>
+        <v>1651803</v>
       </c>
     </row>
     <row r="199">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>511132.66</v>
+        <v>505813</v>
       </c>
     </row>
     <row r="200">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>511132.66</v>
+        <v>505813</v>
       </c>
     </row>
     <row r="201">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>13751000</v>
+        <v>13974568</v>
       </c>
     </row>
     <row r="202">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>416453</v>
+        <v>423411</v>
       </c>
     </row>
     <row r="203">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>448700</v>
+        <v>456570</v>
       </c>
     </row>
     <row r="204">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>329094</v>
+        <v>335862</v>
       </c>
     </row>
     <row r="205">
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>890262</v>
+        <v>907672</v>
       </c>
     </row>
     <row r="206">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>1562503</v>
+        <v>1591571</v>
       </c>
     </row>
     <row r="207">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>276155</v>
+        <v>281356</v>
       </c>
     </row>
     <row r="208">
@@ -2435,9 +2435,6 @@
           <t>NL31</t>
         </is>
       </c>
-      <c r="B208">
-        <v>1207575</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2446,7 +2443,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>2530399</v>
+        <v>2577437</v>
       </c>
     </row>
     <row r="210">
@@ -2455,9 +2452,6 @@
           <t>NL33</t>
         </is>
       </c>
-      <c r="B210">
-        <v>2869026</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2466,7 +2460,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>268960</v>
+        <v>274816</v>
       </c>
     </row>
     <row r="212">
@@ -2476,7 +2470,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>2123181</v>
+        <v>2150318</v>
       </c>
     </row>
     <row r="213">
@@ -2486,7 +2480,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>824815</v>
+        <v>834129</v>
       </c>
     </row>
     <row r="214">
@@ -2496,7 +2490,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>34430704</v>
+        <v>35459696.4</v>
       </c>
     </row>
     <row r="215">
@@ -2506,7 +2500,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>3103020</v>
+        <v>3220871.6</v>
       </c>
     </row>
     <row r="216">
@@ -2516,7 +2510,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>3883302</v>
+        <v>3965165.9</v>
       </c>
     </row>
     <row r="217">
@@ -2526,7 +2520,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>3468758</v>
+        <v>3531569.5</v>
       </c>
     </row>
     <row r="218">
@@ -2536,7 +2530,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>1421816</v>
+        <v>1472191.3</v>
       </c>
     </row>
     <row r="219">
@@ -2546,7 +2540,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>855346</v>
+        <v>878446.6</v>
       </c>
     </row>
     <row r="220">
@@ -2556,7 +2550,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>2540596</v>
+        <v>2721909.8</v>
       </c>
     </row>
     <row r="221">
@@ -2566,7 +2560,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>786563</v>
+        <v>845772.1</v>
       </c>
     </row>
     <row r="222">
@@ -2576,7 +2570,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>1788709</v>
+        <v>1802531.6</v>
       </c>
     </row>
     <row r="223">
@@ -2586,7 +2580,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>1206508</v>
+        <v>1229955.4</v>
       </c>
     </row>
     <row r="224">
@@ -2596,7 +2590,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>2126049</v>
+        <v>2234854.6</v>
       </c>
     </row>
     <row r="225">
@@ -2606,7 +2600,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>2245661</v>
+        <v>2249573.9</v>
       </c>
     </row>
     <row r="226">
@@ -2616,7 +2610,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>1082425</v>
+        <v>1059022.5</v>
       </c>
     </row>
     <row r="227">
@@ -2626,7 +2620,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>1745419</v>
+        <v>1735458.6</v>
       </c>
     </row>
     <row r="228">
@@ -2636,7 +2630,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>1658430</v>
+        <v>1683680.1</v>
       </c>
     </row>
     <row r="229">
@@ -2646,7 +2640,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>1035135</v>
+        <v>1074052.2</v>
       </c>
     </row>
     <row r="230">
@@ -2656,7 +2650,7 @@
         </is>
       </c>
       <c r="B230">
-        <v>3633576</v>
+        <v>3869152.2</v>
       </c>
     </row>
     <row r="231">
@@ -2666,7 +2660,7 @@
         </is>
       </c>
       <c r="B231">
-        <v>1849390</v>
+        <v>1885488.5</v>
       </c>
     </row>
     <row r="232">
@@ -2676,7 +2670,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>8788567.199999999</v>
+        <v>8980700.67</v>
       </c>
     </row>
     <row r="233">
@@ -2686,7 +2680,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>2966539.3</v>
+        <v>3004378.89</v>
       </c>
     </row>
     <row r="234">
@@ -2696,7 +2690,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>397755.79</v>
+        <v>421561.53</v>
       </c>
     </row>
     <row r="235">
@@ -2705,9 +2699,6 @@
           <t>PT16</t>
         </is>
       </c>
-      <c r="B235">
-        <v>1767406.5</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -2715,9 +2706,6 @@
           <t>PT17</t>
         </is>
       </c>
-      <c r="B236">
-        <v>2673432.75</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -2725,9 +2713,6 @@
           <t>PT18</t>
         </is>
       </c>
-      <c r="B237">
-        <v>569466.95</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -2736,7 +2721,7 @@
         </is>
       </c>
       <c r="B238">
-        <v>201336.85</v>
+        <v>212166.47</v>
       </c>
     </row>
     <row r="239">
@@ -2746,7 +2731,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>208890.65</v>
+        <v>207466.09</v>
       </c>
     </row>
     <row r="240">
@@ -2846,7 +2831,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>8100820</v>
+        <v>8296400</v>
       </c>
     </row>
     <row r="250">
@@ -2856,7 +2841,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>2044440</v>
+        <v>2090090</v>
       </c>
     </row>
     <row r="251">
@@ -2866,7 +2851,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>1292640</v>
+        <v>1321610</v>
       </c>
     </row>
     <row r="252">
@@ -2876,7 +2861,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>689510</v>
+        <v>709880</v>
       </c>
     </row>
     <row r="253">
@@ -2886,7 +2871,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>1116000</v>
+        <v>1139630</v>
       </c>
     </row>
     <row r="254">
@@ -2896,7 +2881,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>1636180</v>
+        <v>1675820</v>
       </c>
     </row>
     <row r="255">
@@ -2906,7 +2891,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>628090</v>
+        <v>642330</v>
       </c>
     </row>
     <row r="256">
@@ -2916,7 +2901,7 @@
         </is>
       </c>
       <c r="B256">
-        <v>283630</v>
+        <v>291690</v>
       </c>
     </row>
     <row r="257">
@@ -2926,7 +2911,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>409390</v>
+        <v>424360</v>
       </c>
     </row>
     <row r="258">
@@ -2936,7 +2921,7 @@
         </is>
       </c>
       <c r="B258">
-        <v>1676181.18</v>
+        <v>1676286.65</v>
       </c>
     </row>
     <row r="259">
@@ -2946,7 +2931,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>789099.09</v>
+        <v>789556.45</v>
       </c>
     </row>
     <row r="260">
@@ -2956,7 +2941,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>887082.09</v>
+        <v>886730.2</v>
       </c>
     </row>
     <row r="261">
@@ -2966,7 +2951,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>3776022</v>
+        <v>3772064</v>
       </c>
     </row>
     <row r="262">
@@ -2976,7 +2961,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>742366</v>
+        <v>741354</v>
       </c>
     </row>
     <row r="263">
@@ -2986,7 +2971,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>1270084</v>
+        <v>1268852</v>
       </c>
     </row>
     <row r="264">
@@ -2996,7 +2981,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>882053</v>
+        <v>881156</v>
       </c>
     </row>
     <row r="265">
@@ -3006,7 +2991,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>881519</v>
+        <v>880702</v>
       </c>
     </row>
   </sheetData>
